--- a/big_reward.xlsx
+++ b/big_reward.xlsx
@@ -1673,7 +1673,7 @@
         <v>29540641.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>46079338.8</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
         <v>13486561.1</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>41522930.1</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>15541392</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>90000000</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         <v>23251598.3</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -5183,7 +5183,7 @@
         <v>46154745.9</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5345,7 +5345,7 @@
         <v>38878827.5</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         <v>31579233.1</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5615,7 +5615,7 @@
         <v>32657956.9</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>49685851.5</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>19379323.3</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         <v>76766891.40000001</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         <v>29071164.3</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>14476862.8</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>10000000</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -6614,7 +6614,7 @@
         <v>84777435.8</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>90000000</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>10549199.7</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         <v>18000000</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         <v>22569527.6</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -7613,7 +7613,7 @@
         <v>86970702.8</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -7775,7 +7775,7 @@
         <v>50270035.2</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>46505018.6</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         <v>47357065</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -8207,7 +8207,7 @@
         <v>15363349.6</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>41570496.9</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -8423,7 +8423,7 @@
         <v>23425613.9</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -8450,7 +8450,7 @@
         <v>10000000</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>10000000</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -8774,7 +8774,7 @@
         <v>90000000</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -8882,7 +8882,7 @@
         <v>42670719.3</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>17461478.8</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F315" t="inlineStr">
         <is>
@@ -9341,7 +9341,7 @@
         <v>45000000</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
@@ -9395,7 +9395,7 @@
         <v>22736889.8</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332" t="inlineStr">
         <is>
@@ -9557,7 +9557,7 @@
         <v>30920808.3</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F338" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>18000000</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -9935,7 +9935,7 @@
         <v>33208146.8</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
@@ -9962,7 +9962,7 @@
         <v>10000000</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -10016,7 +10016,7 @@
         <v>9606434.199999999</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
@@ -10178,7 +10178,7 @@
         <v>63248942.3</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>53423674.3</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -10529,7 +10529,7 @@
         <v>45000000</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>55280363.7</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>18927585.4</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         <v>90000000</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
@@ -11042,7 +11042,7 @@
         <v>44648075.8</v>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -11285,7 +11285,7 @@
         <v>30000000</v>
       </c>
       <c r="E402" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
@@ -11339,7 +11339,7 @@
         <v>23515066.3</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>10455190.6</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
@@ -11582,7 +11582,7 @@
         <v>90000000</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F413" t="inlineStr">
         <is>
@@ -11906,7 +11906,7 @@
         <v>90000000</v>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>13286943.4</v>
       </c>
       <c r="E426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>33290606.9</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44565942.8</v>
       </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -12284,7 +12284,7 @@
         <v>38145589.7</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -12365,7 +12365,7 @@
         <v>34889569</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
@@ -12419,7 +12419,7 @@
         <v>21752127.2</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
@@ -12554,7 +12554,7 @@
         <v>58807427.7</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>61083832.1</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>11237997.1</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>88618590</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>13778438.6</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>11125843.8</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F464" t="inlineStr">
         <is>
@@ -12986,7 +12986,7 @@
         <v>11023761.8</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
@@ -13121,7 +13121,7 @@
         <v>63605426.9</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>49162255.5</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>90000000</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>48195035.9</v>
       </c>
       <c r="E485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F485" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45000000</v>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F492" t="inlineStr">
         <is>
@@ -13823,7 +13823,7 @@
         <v>49327084.7</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
         <v>22170100.8</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         <v>33234495.1</v>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F501" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>10754545.6</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>10202832.3</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
@@ -14039,7 +14039,7 @@
         <v>5075565.7</v>
       </c>
       <c r="E504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F504" t="inlineStr">
         <is>
@@ -14201,7 +14201,7 @@
         <v>73720055</v>
       </c>
       <c r="E510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
@@ -14228,7 +14228,7 @@
         <v>12664043</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -14336,7 +14336,7 @@
         <v>24000400.1</v>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F515" t="inlineStr">
         <is>
@@ -14363,7 +14363,7 @@
         <v>11134617</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F516" t="inlineStr">
         <is>
@@ -14552,7 +14552,7 @@
         <v>45000000</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F523" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>24790202</v>
       </c>
       <c r="E526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -15011,7 +15011,7 @@
         <v>110213537.3</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>16811926.4</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F542" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>120000000</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F558" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>45691514.8</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F564" t="inlineStr">
         <is>
@@ -15713,7 +15713,7 @@
         <v>16818418</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F566" t="inlineStr">
         <is>
@@ -15794,7 +15794,7 @@
         <v>20059640.5</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F569" t="inlineStr">
         <is>
@@ -15875,7 +15875,7 @@
         <v>20058411.5</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -16334,7 +16334,7 @@
         <v>120000000</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F589" t="inlineStr">
         <is>
@@ -16577,7 +16577,7 @@
         <v>75871601.7</v>
       </c>
       <c r="E598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F598" t="inlineStr">
         <is>
@@ -16658,7 +16658,7 @@
         <v>21208281</v>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F601" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>107469011.2</v>
       </c>
       <c r="E613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F613" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>40254187.6</v>
       </c>
       <c r="E618" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -17144,7 +17144,7 @@
         <v>10000000</v>
       </c>
       <c r="E619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F619" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>73860867.7</v>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F629" t="inlineStr">
         <is>
@@ -17441,7 +17441,7 @@
         <v>10000000</v>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F630" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>46857546.2</v>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>13654127</v>
       </c>
       <c r="E639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>120000000</v>
       </c>
       <c r="E654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F654" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>117242385.8</v>
       </c>
       <c r="E666" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>10000000</v>
       </c>
       <c r="E667" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F667" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>14292377.9</v>
       </c>
       <c r="E669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -18521,7 +18521,7 @@
         <v>10000000</v>
       </c>
       <c r="E670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F670" t="inlineStr">
         <is>
@@ -18764,7 +18764,7 @@
         <v>65950426.8</v>
       </c>
       <c r="E679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F679" t="inlineStr">
         <is>
@@ -18953,7 +18953,7 @@
         <v>54233217.9</v>
       </c>
       <c r="E686" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F686" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>35268799.2</v>
       </c>
       <c r="E691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F691" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>36524877</v>
       </c>
       <c r="E696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F696" t="inlineStr">
         <is>
